--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C01FCD-343F-4953-AA46-75A250C27BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849B682-21B3-498D-8B82-2E3BE72A6B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -318,7 +318,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -333,22 +333,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -366,7 +366,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -967,7 +967,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -982,22 +982,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1015,7 +1015,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,9 +2842,9 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="e">
+      <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2857,9 +2857,9 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="e">
+      <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2887,9 +2887,9 @@
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="e">
+      <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2902,9 +2902,9 @@
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="e">
+      <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2917,9 +2917,9 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="e">
+      <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2932,9 +2932,9 @@
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="e">
+      <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2945,11 +2945,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2962,9 +2962,9 @@
       <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="e">
+      <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2992,9 +2992,9 @@
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="e">
+      <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3037,9 +3037,9 @@
       <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="e">
+      <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3052,9 +3052,9 @@
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="e">
+      <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3067,9 +3067,9 @@
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="e">
+      <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3082,9 +3082,9 @@
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="e">
+      <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3097,9 +3097,9 @@
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="e">
+      <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3130,9 +3130,9 @@
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="e">
+      <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="e">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>#DIV/0!</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="e">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>#DIV/0!</v>
+        <v>55.55555555555555</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849B682-21B3-498D-8B82-2E3BE72A6B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A7555-FC4A-425D-9E14-0197195FDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,13 +312,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -336,19 +336,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -369,7 +369,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,13 +961,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -985,19 +985,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1018,7 +1018,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>22.222222222222221</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2960,11 +2960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>22.222222222222221</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>22.222222222222221</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>44.444444444444443</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>55.55555555555555</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A7555-FC4A-425D-9E14-0197195FDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA771D8-BDF1-4FB5-82FD-BEF562FD12E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -342,7 +342,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -363,7 +363,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -991,7 +991,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -1012,7 +1012,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>15</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>5</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>15</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>10</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>0</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>10</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>55</v>
+        <v>47.826086956521735</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>45</v>
+        <v>52.173913043478258</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA771D8-BDF1-4FB5-82FD-BEF562FD12E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA0A44-A7A9-49FF-922C-1A3F1CE6CA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -327,7 +327,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -342,7 +342,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -351,7 +351,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -366,10 +366,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +976,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -991,7 +991,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -1000,7 +1000,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1015,10 +1015,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>13.043478260869565</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>0</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.3478260869565215</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>13.043478260869565</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>13.043478260869565</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>0</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>8.695652173913043</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.3478260869565215</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>47.826086956521735</v>
+        <v>41.379310344827587</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>52.173913043478258</v>
+        <v>58.620689655172406</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA0A44-A7A9-49FF-922C-1A3F1CE6CA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23A5F3-643E-4F99-8394-509E34727FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -324,7 +324,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -339,7 +339,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -348,19 +348,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -973,7 +973,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -988,7 +988,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
@@ -997,19 +997,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>13.793103448275861</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3050,11 +3050,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>0</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>41.379310344827587</v>
+        <v>38.888888888888886</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>58.620689655172406</v>
+        <v>61.111111111111114</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23A5F3-643E-4F99-8394-509E34727FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC53ADD-6C82-4525-B157-1C535BCB7CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,22 +312,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -342,34 +342,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,22 +961,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -991,34 +991,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2855,11 +2855,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>0</v>
+        <v>5.1724137931034484</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>5.5555555555555554</v>
+        <v>5.1724137931034484</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>0</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>5.5555555555555554</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>11.111111111111111</v>
+        <v>8.6206896551724146</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.5555555555555554</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>8.6206896551724146</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>1.7241379310344827</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>5.1724137931034484</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.7777777777777777</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>5.5555555555555554</v>
+        <v>12.068965517241379</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>5.1724137931034484</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.5555555555555554</v>
+        <v>5.1724137931034484</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>38.888888888888886</v>
+        <v>36.206896551724135</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>61.111111111111114</v>
+        <v>63.793103448275858</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC53ADD-6C82-4525-B157-1C535BCB7CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB1C08-DDB5-4CBC-9683-351EE608E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -321,10 +321,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -336,13 +336,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -351,22 +351,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
@@ -961,7 +961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -970,10 +970,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -985,13 +985,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -1000,22 +1000,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>5.1724137931034484</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>5.1724137931034484</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>1.7241379310344827</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>1.7241379310344827</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2960,11 +2960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>1.7241379310344827</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>8.6206896551724146</v>
+        <v>13.513513513513514</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.6206896551724146</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.7241379310344827</v>
+        <v>1.3513513513513513</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.1724137931034484</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>12.068965517241379</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>5.1724137931034484</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.1724137931034484</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>36.206896551724135</v>
+        <v>35.13513513513513</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>63.793103448275858</v>
+        <v>64.86486486486487</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB1C08-DDB5-4CBC-9683-351EE608E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB976E8-0A49-44FF-9915-21ECDDBAB36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -324,7 +324,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -333,16 +333,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -351,7 +351,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -363,13 +363,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +973,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -982,16 +982,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -1000,7 +1000,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -1012,13 +1012,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>6.756756756756757</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>2.3529411764705883</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>2.3529411764705883</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2945,11 +2945,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>13.513513513513514</v>
+        <v>12.941176470588237</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>9.4594594594594597</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.3513513513513513</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>6.756756756756757</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.5294117647058822</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.4594594594594597</v>
+        <v>10.588235294117647</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>35.13513513513513</v>
+        <v>34.117647058823529</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>64.86486486486487</v>
+        <v>65.882352941176478</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB976E8-0A49-44FF-9915-21ECDDBAB36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4CE5C1-56CF-411B-881F-FB4AC7FCD207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -330,43 +330,43 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -979,43 +979,43 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.3529411764705883</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>2.3529411764705883</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2930,11 +2930,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>0</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2960,11 +2960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>3.8095238095238098</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>12.941176470588237</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>4.7058823529411766</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>4.7058823529411766</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>11.76470588235294</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3050,11 +3050,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.1764705882352942</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.5294117647058822</v>
+        <v>3.8095238095238098</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.588235294117647</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.7058823529411766</v>
+        <v>3.8095238095238098</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>34.117647058823529</v>
+        <v>29.523809523809526</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>65.882352941176478</v>
+        <v>70.476190476190482</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4CE5C1-56CF-411B-881F-FB4AC7FCD207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA1653-6192-40D8-AB8B-26873E6AA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -321,31 +321,31 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -354,7 +354,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
@@ -369,7 +369,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,31 +970,31 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -1003,7 +1003,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
@@ -1018,7 +1018,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>2.8571428571428572</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>2.8571428571428572</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>1.9047619047619049</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>2.8571428571428572</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>1.9047619047619049</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2930,11 +2930,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>0.95238095238095244</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2945,11 +2945,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>2.8571428571428572</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2960,11 +2960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.8095238095238098</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>5.7377049180327866</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>11.428571428571429</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.666666666666667</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>11.428571428571429</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3050,11 +3050,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.9047619047619049</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.7142857142857144</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.8095238095238098</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>11.428571428571429</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>9.5238095238095237</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>3.8095238095238098</v>
+        <v>4.0983606557377046</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>29.523809523809526</v>
+        <v>36.885245901639337</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>70.476190476190482</v>
+        <v>63.114754098360663</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA1653-6192-40D8-AB8B-26873E6AA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D85746-92F4-4887-A1F4-F8345803E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -315,19 +315,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -339,16 +339,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12</c:v>
@@ -363,10 +363,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5</c:v>
@@ -964,19 +964,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -988,16 +988,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12</c:v>
@@ -1012,10 +1012,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2855,11 +2855,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>2.459016393442623</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>2.459016393442623</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.459016393442623</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>2.459016393442623</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.7377049180327866</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.8360655737704921</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.557377049180328</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>9.8360655737704921</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.459016393442623</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.8360655737704921</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>8.1967213114754092</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.0983606557377046</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>36.885245901639337</v>
+        <v>40.714285714285708</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>63.114754098360663</v>
+        <v>59.285714285714278</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D85746-92F4-4887-A1F4-F8345803E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98775B5B-7F25-4F7E-B6D9-4D15180C682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -318,7 +318,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -327,13 +327,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -342,10 +342,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
@@ -357,19 +357,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +967,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -976,13 +976,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -991,10 +991,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
@@ -1006,19 +1006,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>4.6052631578947363</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2945,11 +2945,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>4.6052631578947363</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.7142857142857144</v>
+        <v>5.2631578947368416</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.2857142857142865</v>
+        <v>9.8684210526315788</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.7142857142857144</v>
+        <v>5.9210526315789469</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.5714285714285712</v>
+        <v>7.8947368421052628</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.1428571428571428</v>
+        <v>1.9736842105263157</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.2857142857142856</v>
+        <v>4.6052631578947363</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.8571428571428572</v>
+        <v>2.6315789473684208</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.714285714285714</v>
+        <v>11.184210526315789</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>7.8571428571428568</v>
+        <v>7.2368421052631584</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>4.6052631578947363</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>40.714285714285708</v>
+        <v>40.131578947368418</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>59.285714285714278</v>
+        <v>59.868421052631575</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98775B5B-7F25-4F7E-B6D9-4D15180C682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594085F-CF75-4029-8B03-47965EA92F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,19 +312,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -336,28 +336,28 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -961,19 +961,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -985,28 +985,28 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.2894736842105261</v>
+        <v>3.6809815950920246</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2855,11 +2855,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.9473684210526314</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.6052631578947363</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.9473684210526314</v>
+        <v>4.9079754601226995</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.2894736842105261</v>
+        <v>3.6809815950920246</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.9473684210526314</v>
+        <v>3.6809815950920246</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.2894736842105261</v>
+        <v>3.0674846625766872</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.6052631578947363</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2960,11 +2960,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.9473684210526314</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.2631578947368416</v>
+        <v>4.9079754601226995</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.8684210526315788</v>
+        <v>9.8159509202453989</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.9210526315789469</v>
+        <v>6.1349693251533743</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.9473684210526314</v>
+        <v>3.6809815950920246</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>7.8947368421052628</v>
+        <v>7.9754601226993866</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.9736842105263157</v>
+        <v>1.8404907975460123</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.6052631578947363</v>
+        <v>5.5214723926380369</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.6315789473684208</v>
+        <v>2.4539877300613497</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>11.184210526315789</v>
+        <v>10.429447852760736</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>7.2368421052631584</v>
+        <v>6.7484662576687118</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.6052631578947363</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>40.131578947368418</v>
+        <v>41.104294478527606</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>59.868421052631575</v>
+        <v>58.895705521472394</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594085F-CF75-4029-8B03-47965EA92F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADD288-590C-4BB4-9B09-C68FD33B9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -333,7 +333,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
@@ -351,7 +351,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -369,7 +369,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +982,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
@@ -1000,7 +1000,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -1018,7 +1018,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.6809815950920246</v>
+        <v>3.6144578313253009</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.294478527607362</v>
+        <v>4.2168674698795181</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.294478527607362</v>
+        <v>4.2168674698795181</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.9079754601226995</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.6809815950920246</v>
+        <v>3.6144578313253009</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.6809815950920246</v>
+        <v>3.6144578313253009</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.0674846625766872</v>
+        <v>3.0120481927710845</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2945,11 +2945,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.294478527607362</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.294478527607362</v>
+        <v>4.2168674698795181</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.9079754601226995</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.8159509202453989</v>
+        <v>9.6385542168674707</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.1349693251533743</v>
+        <v>6.024096385542169</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.6809815950920246</v>
+        <v>3.6144578313253009</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>7.9754601226993866</v>
+        <v>8.4337349397590362</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.8404907975460123</v>
+        <v>1.8072289156626504</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.5214723926380369</v>
+        <v>5.4216867469879517</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.4539877300613497</v>
+        <v>2.4096385542168677</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.429447852760736</v>
+        <v>10.240963855421686</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>6.7484662576687118</v>
+        <v>6.6265060240963862</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3128,11 +3128,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.294478527607362</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>41.104294478527606</v>
+        <v>40.963855421686752</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>58.895705521472394</v>
+        <v>59.036144578313255</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADD288-590C-4BB4-9B09-C68FD33B9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F3966-37AC-4C4E-B2E8-2930C94BD8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -330,7 +330,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -357,7 +357,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -979,7 +979,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -1006,7 +1006,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.6144578313253009</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.2168674698795181</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.2168674698795181</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.8192771084337354</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.6144578313253009</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.6144578313253009</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2930,11 +2930,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.0120481927710845</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.8192771084337354</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.2168674698795181</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.8192771084337354</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.6385542168674707</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.024096385542169</v>
+        <v>5.9523809523809517</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.6144578313253009</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.4337349397590362</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.8072289156626504</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.4216867469879517</v>
+        <v>5.9523809523809517</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.4096385542168677</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.240963855421686</v>
+        <v>10.119047619047619</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>6.6265060240963862</v>
+        <v>6.5476190476190483</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.8192771084337354</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>40.963855421686752</v>
+        <v>41.071428571428555</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>59.036144578313255</v>
+        <v>58.928571428571423</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F3966-37AC-4C4E-B2E8-2930C94BD8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D6A3D-D839-45B5-910A-EB1AF7119044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -327,10 +327,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -339,16 +339,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
@@ -357,7 +357,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -366,7 +366,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -976,10 +976,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -988,16 +988,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
@@ -1006,7 +1006,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -1015,7 +1015,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>4.1666666666666661</v>
+        <v>3.9325842696629212</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.1666666666666661</v>
+        <v>3.9325842696629212</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.3707865168539324</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2930,11 +2930,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.1666666666666661</v>
+        <v>3.9325842696629212</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>5.0561797752808983</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2990,11 +2990,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.5238095238095237</v>
+        <v>9.5505617977528079</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.9523809523809517</v>
+        <v>6.179775280898876</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3020,11 +3020,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.5714285714285712</v>
+        <v>3.9325842696629212</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>7.8651685393258424</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.7857142857142856</v>
+        <v>1.6853932584269662</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3065,11 +3065,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.9523809523809517</v>
+        <v>6.179775280898876</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>2.2471910112359552</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>10.119047619047619</v>
+        <v>9.5505617977528079</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>6.5476190476190483</v>
+        <v>6.7415730337078648</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>41.071428571428555</v>
+        <v>41.573033707865157</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>58.928571428571423</v>
+        <v>58.426966292134829</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D6A3D-D839-45B5-910A-EB1AF7119044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B2650-ED6C-412B-8C5D-A26E47439CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -324,7 +324,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
@@ -351,7 +351,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -360,13 +360,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -973,7 +973,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
@@ -1000,7 +1000,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
@@ -1009,13 +1009,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.9325842696629212</v>
+        <v>3.8251366120218582</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.9325842696629212</v>
+        <v>3.8251366120218582</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.3715846994535523</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.3707865168539324</v>
+        <v>3.8251366120218582</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.3715846994535523</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.3715846994535523</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.3715846994535523</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.9325842696629212</v>
+        <v>3.8251366120218582</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.0561797752808983</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.5505617977528079</v>
+        <v>9.2896174863387984</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.179775280898876</v>
+        <v>6.0109289617486334</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.9325842696629212</v>
+        <v>3.8251366120218582</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>7.8651685393258424</v>
+        <v>8.7431693989071047</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.6853932584269662</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>6.179775280898876</v>
+        <v>6.0109289617486334</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.2471910112359552</v>
+        <v>2.7322404371584699</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.5505617977528079</v>
+        <v>9.2896174863387984</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>6.7415730337078648</v>
+        <v>7.1038251366120218</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.4943820224719104</v>
+        <v>4.3715846994535523</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>41.573033707865157</v>
+        <v>40.983606557377051</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>58.426966292134829</v>
+        <v>59.016393442622949</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B2650-ED6C-412B-8C5D-A26E47439CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0728D1-7CAA-421F-9235-2DCF0A7426C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,22 +312,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
@@ -339,7 +339,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17</c:v>
@@ -351,22 +351,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -961,22 +961,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
@@ -988,7 +988,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17</c:v>
@@ -1000,22 +1000,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,11 +2840,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>4.5226130653266337</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.8251366120218582</v>
+        <v>3.5175879396984926</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.8251366120218582</v>
+        <v>4.0201005025125625</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.3715846994535523</v>
+        <v>4.5226130653266337</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2900,11 +2900,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.8251366120218582</v>
+        <v>4.5226130653266337</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2915,11 +2915,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>4.3715846994535523</v>
+        <v>4.5226130653266337</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.3715846994535523</v>
+        <v>4.0201005025125625</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.3715846994535523</v>
+        <v>4.0201005025125625</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.8251366120218582</v>
+        <v>3.5175879396984926</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2975,11 +2975,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>5.025125628140704</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.2896174863387984</v>
+        <v>8.5427135678391952</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>6.0109289617486334</v>
+        <v>5.5276381909547743</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.8251366120218582</v>
+        <v>3.5175879396984926</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>8.7431693989071047</v>
+        <v>9.0452261306532673</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3050,11 +3050,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>1.639344262295082</v>
+        <v>2.512562814070352</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>6.0109289617486334</v>
+        <v>5.5276381909547743</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.7322404371584699</v>
+        <v>3.0150753768844218</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.2896174863387984</v>
+        <v>9.0452261306532673</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3113,11 +3113,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>7.1038251366120218</v>
+        <v>7.0351758793969852</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.3715846994535523</v>
+        <v>4.0201005025125625</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>40.983606557377051</v>
+        <v>42.211055276381913</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>59.016393442622949</v>
+        <v>57.788944723618094</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0728D1-7CAA-421F-9235-2DCF0A7426C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172C3A5-6660-4533-841B-15513E7D4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -345,13 +345,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -360,7 +360,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
@@ -994,13 +994,13 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -1009,7 +1009,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.5226130653266337</v>
+        <v>4.455445544554455</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.5175879396984926</v>
+        <v>3.4653465346534658</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>4.0201005025125625</v>
+        <v>3.9603960396039604</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.5226130653266337</v>
+        <v>4.455445544554455</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.5226130653266337</v>
+        <v>4.455445544554455</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>4.5226130653266337</v>
+        <v>4.455445544554455</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>4.0201005025125625</v>
+        <v>3.9603960396039604</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.0201005025125625</v>
+        <v>3.9603960396039604</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.5175879396984926</v>
+        <v>3.4653465346534658</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.025125628140704</v>
+        <v>4.9504950495049505</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>8.5427135678391952</v>
+        <v>8.4158415841584162</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3005,11 +3005,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.5276381909547743</v>
+        <v>5.9405940594059405</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.5175879396984926</v>
+        <v>3.4653465346534658</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>9.0452261306532673</v>
+        <v>9.4059405940594054</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.512562814070352</v>
+        <v>2.4752475247524752</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.5276381909547743</v>
+        <v>5.4455445544554459</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3080,11 +3080,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.0150753768844218</v>
+        <v>3.4653465346534658</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.0452261306532673</v>
+        <v>8.9108910891089099</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>7.0351758793969852</v>
+        <v>6.9306930693069315</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>4.0201005025125625</v>
+        <v>3.9603960396039604</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>42.211055276381913</v>
+        <v>41.584158415841578</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>57.788944723618094</v>
+        <v>58.415841584158414</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
+++ b/DnData/D20/LA/MYLUCK_21_LA-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\LA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172C3A5-6660-4533-841B-15513E7D4633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491D3F4-E049-49B4-99E3-6D3D89CA15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -318,10 +318,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -351,7 +351,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -363,7 +363,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14</c:v>
@@ -967,10 +967,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -1000,7 +1000,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -1012,7 +1012,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14</c:v>
@@ -2810,7 +2810,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.455445544554455</v>
+        <v>4.3689320388349513</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>3.4653465346534658</v>
+        <v>3.3980582524271843</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2870,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>3.9603960396039604</v>
+        <v>4.3689320388349513</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2885,11 +2885,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>4.455445544554455</v>
+        <v>4.8543689320388346</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.455445544554455</v>
+        <v>4.3689320388349513</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="C7" s="3">
         <f>B7/B22 * 100</f>
-        <v>4.455445544554455</v>
+        <v>4.3689320388349513</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>3.9603960396039604</v>
+        <v>3.8834951456310676</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>3.9603960396039604</v>
+        <v>3.8834951456310676</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.4653465346534658</v>
+        <v>3.3980582524271843</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.9504950495049505</v>
+        <v>4.8543689320388346</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>8.4158415841584162</v>
+        <v>8.2524271844660202</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>5.9405940594059405</v>
+        <v>5.825242718446602</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>3.4653465346534658</v>
+        <v>3.3980582524271843</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3035,11 +3035,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>9.4059405940594054</v>
+        <v>9.7087378640776691</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>2.4752475247524752</v>
+        <v>2.4271844660194173</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>5.4455445544554459</v>
+        <v>5.3398058252427179</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.4653465346534658</v>
+        <v>3.3980582524271843</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3095,11 +3095,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>8.9108910891089099</v>
+        <v>9.2233009708737868</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>6.9306930693069315</v>
+        <v>6.7961165048543686</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>3.9603960396039604</v>
+        <v>3.8834951456310676</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>41.584158415841578</v>
+        <v>41.747572815533985</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>58.415841584158414</v>
+        <v>58.252427184466015</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
